--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Vegfa-Nrp1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Vegfa-Nrp1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.7744670006959</v>
+        <v>3.847215666666667</v>
       </c>
       <c r="H2">
-        <v>3.7744670006959</v>
+        <v>11.541647</v>
       </c>
       <c r="I2">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="J2">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>97.0174500871979</v>
+        <v>101.7913436666667</v>
       </c>
       <c r="N2">
-        <v>97.0174500871979</v>
+        <v>305.374031</v>
       </c>
       <c r="O2">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="P2">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="Q2">
-        <v>366.18916384579</v>
+        <v>391.6132520854508</v>
       </c>
       <c r="R2">
-        <v>366.18916384579</v>
+        <v>3524.519268769057</v>
       </c>
       <c r="S2">
-        <v>0.01700462877643225</v>
+        <v>0.01536985212799896</v>
       </c>
       <c r="T2">
-        <v>0.01700462877643225</v>
+        <v>0.01536985212799896</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.7744670006959</v>
+        <v>3.847215666666667</v>
       </c>
       <c r="H3">
-        <v>3.7744670006959</v>
+        <v>11.541647</v>
       </c>
       <c r="I3">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="J3">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>54.2179138591544</v>
+        <v>54.34621166666667</v>
       </c>
       <c r="N3">
-        <v>54.2179138591544</v>
+        <v>163.038635</v>
       </c>
       <c r="O3">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="P3">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="Q3">
-        <v>204.6437267079512</v>
+        <v>209.0815969479828</v>
       </c>
       <c r="R3">
-        <v>204.6437267079512</v>
+        <v>1881.734372531845</v>
       </c>
       <c r="S3">
-        <v>0.009502986291423465</v>
+        <v>0.00820593585805204</v>
       </c>
       <c r="T3">
-        <v>0.009502986291423465</v>
+        <v>0.00820593585805204</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.7744670006959</v>
+        <v>3.847215666666667</v>
       </c>
       <c r="H4">
-        <v>3.7744670006959</v>
+        <v>11.541647</v>
       </c>
       <c r="I4">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="J4">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>121.748221160133</v>
+        <v>122.2542826666667</v>
       </c>
       <c r="N4">
-        <v>121.748221160133</v>
+        <v>366.762848</v>
       </c>
       <c r="O4">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="P4">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="Q4">
-        <v>459.5346431623483</v>
+        <v>470.3385915922951</v>
       </c>
       <c r="R4">
-        <v>459.5346431623483</v>
+        <v>4233.047324330656</v>
       </c>
       <c r="S4">
-        <v>0.02133928796477638</v>
+        <v>0.01845962710497723</v>
       </c>
       <c r="T4">
-        <v>0.02133928796477638</v>
+        <v>0.01845962710497723</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.7744670006959</v>
+        <v>3.847215666666667</v>
       </c>
       <c r="H5">
-        <v>3.7744670006959</v>
+        <v>11.541647</v>
       </c>
       <c r="I5">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="J5">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.13358210476039</v>
+        <v>75.13712199999999</v>
       </c>
       <c r="N5">
-        <v>68.13358210476039</v>
+        <v>225.411366</v>
       </c>
       <c r="O5">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291165</v>
       </c>
       <c r="P5">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291166</v>
       </c>
       <c r="Q5">
-        <v>257.1679572936228</v>
+        <v>289.0687129066446</v>
       </c>
       <c r="R5">
-        <v>257.1679572936228</v>
+        <v>2601.618416159802</v>
       </c>
       <c r="S5">
-        <v>0.01194204001299454</v>
+        <v>0.01134523244181903</v>
       </c>
       <c r="T5">
-        <v>0.01194204001299454</v>
+        <v>0.01134523244181903</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.7744670006959</v>
+        <v>3.847215666666667</v>
       </c>
       <c r="H6">
-        <v>3.7744670006959</v>
+        <v>11.541647</v>
       </c>
       <c r="I6">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="J6">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.643386272259139</v>
+        <v>9.304706666666666</v>
       </c>
       <c r="N6">
-        <v>8.643386272259139</v>
+        <v>27.91412</v>
       </c>
       <c r="O6">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="P6">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="Q6">
-        <v>32.62417625891007</v>
+        <v>35.79721326173778</v>
       </c>
       <c r="R6">
-        <v>32.62417625891007</v>
+        <v>322.17491935564</v>
       </c>
       <c r="S6">
-        <v>0.001514960193233031</v>
+        <v>0.001404952134529142</v>
       </c>
       <c r="T6">
-        <v>0.001514960193233031</v>
+        <v>0.001404952134529141</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.5160830820305</v>
+        <v>17.74214666666667</v>
       </c>
       <c r="H7">
-        <v>17.5160830820305</v>
+        <v>53.22644</v>
       </c>
       <c r="I7">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="J7">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>97.0174500871979</v>
+        <v>101.7913436666667</v>
       </c>
       <c r="N7">
-        <v>97.0174500871979</v>
+        <v>305.374031</v>
       </c>
       <c r="O7">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="P7">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="Q7">
-        <v>1699.365716134106</v>
+        <v>1805.996948731071</v>
       </c>
       <c r="R7">
-        <v>1699.365716134106</v>
+        <v>16253.97253857964</v>
       </c>
       <c r="S7">
-        <v>0.07891299364179323</v>
+        <v>0.07088091605121943</v>
       </c>
       <c r="T7">
-        <v>0.07891299364179323</v>
+        <v>0.07088091605121943</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.5160830820305</v>
+        <v>17.74214666666667</v>
       </c>
       <c r="H8">
-        <v>17.5160830820305</v>
+        <v>53.22644</v>
       </c>
       <c r="I8">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="J8">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>54.2179138591544</v>
+        <v>54.34621166666667</v>
       </c>
       <c r="N8">
-        <v>54.2179138591544</v>
+        <v>163.038635</v>
       </c>
       <c r="O8">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="P8">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="Q8">
-        <v>949.6854836913215</v>
+        <v>964.2184581677111</v>
       </c>
       <c r="R8">
-        <v>949.6854836913215</v>
+        <v>8677.966123509399</v>
       </c>
       <c r="S8">
-        <v>0.04410029214118998</v>
+        <v>0.03784319106211231</v>
       </c>
       <c r="T8">
-        <v>0.04410029214118998</v>
+        <v>0.03784319106211231</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.5160830820305</v>
+        <v>17.74214666666667</v>
       </c>
       <c r="H9">
-        <v>17.5160830820305</v>
+        <v>53.22644</v>
       </c>
       <c r="I9">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="J9">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>121.748221160133</v>
+        <v>122.2542826666667</v>
       </c>
       <c r="N9">
-        <v>121.748221160133</v>
+        <v>366.762848</v>
       </c>
       <c r="O9">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="P9">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="Q9">
-        <v>2132.551956930314</v>
+        <v>2169.053413700124</v>
       </c>
       <c r="R9">
-        <v>2132.551956930314</v>
+        <v>19521.48072330112</v>
       </c>
       <c r="S9">
-        <v>0.09902874785591781</v>
+        <v>0.08512998487351452</v>
       </c>
       <c r="T9">
-        <v>0.09902874785591781</v>
+        <v>0.08512998487351452</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.5160830820305</v>
+        <v>17.74214666666667</v>
       </c>
       <c r="H10">
-        <v>17.5160830820305</v>
+        <v>53.22644</v>
       </c>
       <c r="I10">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="J10">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.13358210476039</v>
+        <v>75.13712199999999</v>
       </c>
       <c r="N10">
-        <v>68.13358210476039</v>
+        <v>225.411366</v>
       </c>
       <c r="O10">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291165</v>
       </c>
       <c r="P10">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291166</v>
       </c>
       <c r="Q10">
-        <v>1193.43348482333</v>
+        <v>1333.093838635227</v>
       </c>
       <c r="R10">
-        <v>1193.43348482333</v>
+        <v>11997.84454771704</v>
       </c>
       <c r="S10">
-        <v>0.05541915322030336</v>
+        <v>0.05232063793412969</v>
       </c>
       <c r="T10">
-        <v>0.05541915322030336</v>
+        <v>0.0523206379341297</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.5160830820305</v>
+        <v>17.74214666666667</v>
       </c>
       <c r="H11">
-        <v>17.5160830820305</v>
+        <v>53.22644</v>
       </c>
       <c r="I11">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="J11">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.643386272259139</v>
+        <v>9.304706666666666</v>
       </c>
       <c r="N11">
-        <v>8.643386272259139</v>
+        <v>27.91412</v>
       </c>
       <c r="O11">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="P11">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="Q11">
-        <v>151.398272054973</v>
+        <v>165.0854703703111</v>
       </c>
       <c r="R11">
-        <v>151.398272054973</v>
+        <v>1485.7692333328</v>
       </c>
       <c r="S11">
-        <v>0.007030441279721418</v>
+        <v>0.006479196642505811</v>
       </c>
       <c r="T11">
-        <v>0.007030441279721418</v>
+        <v>0.00647919664250581</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.7989400165054</v>
+        <v>21.79134566666667</v>
       </c>
       <c r="H12">
-        <v>19.7989400165054</v>
+        <v>65.374037</v>
       </c>
       <c r="I12">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="J12">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>97.0174500871979</v>
+        <v>101.7913436666667</v>
       </c>
       <c r="N12">
-        <v>97.0174500871979</v>
+        <v>305.374031</v>
       </c>
       <c r="O12">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="P12">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="Q12">
-        <v>1920.842674830738</v>
+        <v>2218.170355714794</v>
       </c>
       <c r="R12">
-        <v>1920.842674830738</v>
+        <v>19963.53320143315</v>
       </c>
       <c r="S12">
-        <v>0.08919766024857313</v>
+        <v>0.08705770343698195</v>
       </c>
       <c r="T12">
-        <v>0.08919766024857313</v>
+        <v>0.08705770343698195</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>19.7989400165054</v>
+        <v>21.79134566666667</v>
       </c>
       <c r="H13">
-        <v>19.7989400165054</v>
+        <v>65.374037</v>
       </c>
       <c r="I13">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="J13">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.2179138591544</v>
+        <v>54.34621166666667</v>
       </c>
       <c r="N13">
-        <v>54.2179138591544</v>
+        <v>163.038635</v>
       </c>
       <c r="O13">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="P13">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="Q13">
-        <v>1073.457224317455</v>
+        <v>1184.277084102166</v>
       </c>
       <c r="R13">
-        <v>1073.457224317455</v>
+        <v>10658.4937569195</v>
       </c>
       <c r="S13">
-        <v>0.04984784753102284</v>
+        <v>0.04647994817411422</v>
       </c>
       <c r="T13">
-        <v>0.04984784753102284</v>
+        <v>0.04647994817411422</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>19.7989400165054</v>
+        <v>21.79134566666667</v>
       </c>
       <c r="H14">
-        <v>19.7989400165054</v>
+        <v>65.374037</v>
       </c>
       <c r="I14">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="J14">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>121.748221160133</v>
+        <v>122.2542826666667</v>
       </c>
       <c r="N14">
-        <v>121.748221160133</v>
+        <v>366.762848</v>
       </c>
       <c r="O14">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="P14">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="Q14">
-        <v>2410.485727865707</v>
+        <v>2664.085332819709</v>
       </c>
       <c r="R14">
-        <v>2410.485727865707</v>
+        <v>23976.76799537737</v>
       </c>
       <c r="S14">
-        <v>0.1119350844322251</v>
+        <v>0.1045587640452861</v>
       </c>
       <c r="T14">
-        <v>0.1119350844322251</v>
+        <v>0.1045587640452861</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>19.7989400165054</v>
+        <v>21.79134566666667</v>
       </c>
       <c r="H15">
-        <v>19.7989400165054</v>
+        <v>65.374037</v>
       </c>
       <c r="I15">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="J15">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>68.13358210476039</v>
+        <v>75.13712199999999</v>
       </c>
       <c r="N15">
-        <v>68.13358210476039</v>
+        <v>225.411366</v>
       </c>
       <c r="O15">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291165</v>
       </c>
       <c r="P15">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291166</v>
       </c>
       <c r="Q15">
-        <v>1348.972705201797</v>
+        <v>1637.338997900505</v>
       </c>
       <c r="R15">
-        <v>1348.972705201797</v>
+        <v>14736.05098110454</v>
       </c>
       <c r="S15">
-        <v>0.06264188661561852</v>
+        <v>0.06426150838134954</v>
       </c>
       <c r="T15">
-        <v>0.06264188661561852</v>
+        <v>0.06426150838134956</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>19.7989400165054</v>
+        <v>21.79134566666667</v>
       </c>
       <c r="H16">
-        <v>19.7989400165054</v>
+        <v>65.374037</v>
       </c>
       <c r="I16">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="J16">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.643386272259139</v>
+        <v>9.304706666666666</v>
       </c>
       <c r="N16">
-        <v>8.643386272259139</v>
+        <v>27.91412</v>
       </c>
       <c r="O16">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="P16">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="Q16">
-        <v>171.1298863439449</v>
+        <v>202.7620793002711</v>
       </c>
       <c r="R16">
-        <v>171.1298863439449</v>
+        <v>1824.85871370244</v>
       </c>
       <c r="S16">
-        <v>0.007946713002838305</v>
+        <v>0.007957910411394238</v>
       </c>
       <c r="T16">
-        <v>0.007946713002838305</v>
+        <v>0.007957910411394237</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.2741319935737</v>
+        <v>20.94549</v>
       </c>
       <c r="H17">
-        <v>15.2741319935737</v>
+        <v>62.83647</v>
       </c>
       <c r="I17">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="J17">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>97.0174500871979</v>
+        <v>101.7913436666667</v>
       </c>
       <c r="N17">
-        <v>97.0174500871979</v>
+        <v>305.374031</v>
       </c>
       <c r="O17">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="P17">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="Q17">
-        <v>1481.857338311809</v>
+        <v>2132.06957085673</v>
       </c>
       <c r="R17">
-        <v>1481.857338311809</v>
+        <v>19188.62613771057</v>
       </c>
       <c r="S17">
-        <v>0.06881261496922907</v>
+        <v>0.08367846046109731</v>
       </c>
       <c r="T17">
-        <v>0.06881261496922907</v>
+        <v>0.08367846046109731</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>15.2741319935737</v>
+        <v>20.94549</v>
       </c>
       <c r="H18">
-        <v>15.2741319935737</v>
+        <v>62.83647</v>
       </c>
       <c r="I18">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="J18">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>54.2179138591544</v>
+        <v>54.34621166666667</v>
       </c>
       <c r="N18">
-        <v>54.2179138591544</v>
+        <v>163.038635</v>
       </c>
       <c r="O18">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="P18">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="Q18">
-        <v>828.1315727009331</v>
+        <v>1138.30803300205</v>
       </c>
       <c r="R18">
-        <v>828.1315727009331</v>
+        <v>10244.77229701845</v>
       </c>
       <c r="S18">
-        <v>0.03845572551609594</v>
+        <v>0.04467577654787148</v>
       </c>
       <c r="T18">
-        <v>0.03845572551609594</v>
+        <v>0.04467577654787148</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>15.2741319935737</v>
+        <v>20.94549</v>
       </c>
       <c r="H19">
-        <v>15.2741319935737</v>
+        <v>62.83647</v>
       </c>
       <c r="I19">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="J19">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>121.748221160133</v>
+        <v>122.2542826666667</v>
       </c>
       <c r="N19">
-        <v>121.748221160133</v>
+        <v>366.762848</v>
       </c>
       <c r="O19">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="P19">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="Q19">
-        <v>1859.598399982674</v>
+        <v>2560.67585505184</v>
       </c>
       <c r="R19">
-        <v>1859.598399982674</v>
+        <v>23046.08269546656</v>
       </c>
       <c r="S19">
-        <v>0.08635367615156778</v>
+        <v>0.1005001976574997</v>
       </c>
       <c r="T19">
-        <v>0.08635367615156778</v>
+        <v>0.1005001976574997</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>15.2741319935737</v>
+        <v>20.94549</v>
       </c>
       <c r="H20">
-        <v>15.2741319935737</v>
+        <v>62.83647</v>
       </c>
       <c r="I20">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="J20">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>68.13358210476039</v>
+        <v>75.13712199999999</v>
       </c>
       <c r="N20">
-        <v>68.13358210476039</v>
+        <v>225.411366</v>
       </c>
       <c r="O20">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291165</v>
       </c>
       <c r="P20">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291166</v>
       </c>
       <c r="Q20">
-        <v>1040.681326263101</v>
+        <v>1573.78383747978</v>
       </c>
       <c r="R20">
-        <v>1040.681326263101</v>
+        <v>14164.05453731802</v>
       </c>
       <c r="S20">
-        <v>0.04832584187314056</v>
+        <v>0.06176712543481779</v>
       </c>
       <c r="T20">
-        <v>0.04832584187314056</v>
+        <v>0.06176712543481779</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>15.2741319935737</v>
+        <v>20.94549</v>
       </c>
       <c r="H21">
-        <v>15.2741319935737</v>
+        <v>62.83647</v>
       </c>
       <c r="I21">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="J21">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.643386272259139</v>
+        <v>9.304706666666666</v>
       </c>
       <c r="N21">
-        <v>8.643386272259139</v>
+        <v>27.91412</v>
       </c>
       <c r="O21">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="P21">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="Q21">
-        <v>132.020222793929</v>
+        <v>194.8916404396</v>
       </c>
       <c r="R21">
-        <v>132.020222793929</v>
+        <v>1754.0247639564</v>
       </c>
       <c r="S21">
-        <v>0.006130587961740016</v>
+        <v>0.007649015140800646</v>
       </c>
       <c r="T21">
-        <v>0.006130587961740016</v>
+        <v>0.007649015140800645</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.2061442887798</v>
+        <v>5.896920666666666</v>
       </c>
       <c r="H22">
-        <v>5.2061442887798</v>
+        <v>17.690762</v>
       </c>
       <c r="I22">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="J22">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>97.0174500871979</v>
+        <v>101.7913436666667</v>
       </c>
       <c r="N22">
-        <v>97.0174500871979</v>
+        <v>305.374031</v>
       </c>
       <c r="O22">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="P22">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="Q22">
-        <v>505.0868436834447</v>
+        <v>600.2554781557358</v>
       </c>
       <c r="R22">
-        <v>505.0868436834447</v>
+        <v>5402.299303401622</v>
       </c>
       <c r="S22">
-        <v>0.0234545833811559</v>
+        <v>0.02355854376516827</v>
       </c>
       <c r="T22">
-        <v>0.0234545833811559</v>
+        <v>0.02355854376516827</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.2061442887798</v>
+        <v>5.896920666666666</v>
       </c>
       <c r="H23">
-        <v>5.2061442887798</v>
+        <v>17.690762</v>
       </c>
       <c r="I23">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="J23">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>54.2179138591544</v>
+        <v>54.34621166666667</v>
       </c>
       <c r="N23">
-        <v>54.2179138591544</v>
+        <v>163.038635</v>
       </c>
       <c r="O23">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="P23">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="Q23">
-        <v>282.2662825873919</v>
+        <v>320.4752987322078</v>
       </c>
       <c r="R23">
-        <v>282.2662825873919</v>
+        <v>2884.27768858987</v>
       </c>
       <c r="S23">
-        <v>0.01310752426722117</v>
+        <v>0.01257786330253077</v>
       </c>
       <c r="T23">
-        <v>0.01310752426722117</v>
+        <v>0.01257786330253077</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.2061442887798</v>
+        <v>5.896920666666666</v>
       </c>
       <c r="H24">
-        <v>5.2061442887798</v>
+        <v>17.690762</v>
       </c>
       <c r="I24">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="J24">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>121.748221160133</v>
+        <v>122.2542826666667</v>
       </c>
       <c r="N24">
-        <v>121.748221160133</v>
+        <v>366.762848</v>
       </c>
       <c r="O24">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="P24">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="Q24">
-        <v>633.8388062619264</v>
+        <v>720.923806045575</v>
       </c>
       <c r="R24">
-        <v>633.8388062619264</v>
+        <v>6488.314254410175</v>
       </c>
       <c r="S24">
-        <v>0.02943340401279581</v>
+        <v>0.02829447735863878</v>
       </c>
       <c r="T24">
-        <v>0.02943340401279581</v>
+        <v>0.02829447735863878</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.2061442887798</v>
+        <v>5.896920666666666</v>
       </c>
       <c r="H25">
-        <v>5.2061442887798</v>
+        <v>17.690762</v>
       </c>
       <c r="I25">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="J25">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>68.13358210476039</v>
+        <v>75.13712199999999</v>
       </c>
       <c r="N25">
-        <v>68.13358210476039</v>
+        <v>225.411366</v>
       </c>
       <c r="O25">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291165</v>
       </c>
       <c r="P25">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291166</v>
       </c>
       <c r="Q25">
-        <v>354.7132593488079</v>
+        <v>443.0776475556546</v>
       </c>
       <c r="R25">
-        <v>354.7132593488079</v>
+        <v>3987.698828000892</v>
       </c>
       <c r="S25">
-        <v>0.01647172525248431</v>
+        <v>0.01738970243700048</v>
       </c>
       <c r="T25">
-        <v>0.01647172525248431</v>
+        <v>0.01738970243700049</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.2061442887798</v>
+        <v>5.896920666666666</v>
       </c>
       <c r="H26">
-        <v>5.2061442887798</v>
+        <v>17.690762</v>
       </c>
       <c r="I26">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="J26">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.643386272259139</v>
+        <v>9.304706666666666</v>
       </c>
       <c r="N26">
-        <v>8.643386272259139</v>
+        <v>27.91412</v>
       </c>
       <c r="O26">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="P26">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="Q26">
-        <v>44.99871607703965</v>
+        <v>54.86911703993778</v>
       </c>
       <c r="R26">
-        <v>44.99871607703965</v>
+        <v>493.8220533594399</v>
       </c>
       <c r="S26">
-        <v>0.002089593406506067</v>
+        <v>0.002153477214590519</v>
       </c>
       <c r="T26">
-        <v>0.002089593406506067</v>
+        <v>0.002153477214590519</v>
       </c>
     </row>
   </sheetData>
